--- a/Documents/Comparison Table.xlsx
+++ b/Documents/Comparison Table.xlsx
@@ -5,11 +5,11 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umutcanserce/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/umutcanserce/Documents/GitHub/OJO/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27320" windowHeight="15360" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="27320" windowHeight="13800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>Convoy</t>
   </si>
@@ -53,45 +53,12 @@
     <t>Fun (0.35)</t>
   </si>
   <si>
-    <t>10*0.25</t>
-  </si>
-  <si>
-    <t>8*0.25</t>
-  </si>
-  <si>
-    <t>10*0.35</t>
-  </si>
-  <si>
     <t>Image Processing (0.20)</t>
   </si>
   <si>
     <t>Robotics (0.20)</t>
   </si>
   <si>
-    <t>8*0.20</t>
-  </si>
-  <si>
-    <t>6*0.20</t>
-  </si>
-  <si>
-    <t>6*0.35</t>
-  </si>
-  <si>
-    <t>2*0.20</t>
-  </si>
-  <si>
-    <t>10*0.20</t>
-  </si>
-  <si>
-    <t>6*0.25</t>
-  </si>
-  <si>
-    <t>2*0.35</t>
-  </si>
-  <si>
-    <t>4*0.25</t>
-  </si>
-  <si>
     <t>8.8</t>
   </si>
   <si>
@@ -105,14 +72,314 @@
   </si>
   <si>
     <t>5.3</t>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10*</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>0.35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.25</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.35</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>*0.25</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -140,12 +407,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -154,28 +427,116 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
@@ -189,7 +550,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tablo4" displayName="Tablo4" ref="A1:F6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tablo4" displayName="Tablo4" ref="A1:F6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="A1:F6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -476,7 +837,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,123 +850,123 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="1" t="s">
+      <c r="B2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>23</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>24</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>25</v>
+      <c r="F5" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6" s="1" t="s">
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>26</v>
+      <c r="D6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Comparison Table.xlsx
+++ b/Documents/Comparison Table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Convoy</t>
   </si>
@@ -341,20 +341,37 @@
       </rPr>
       <t>*0.25</t>
     </r>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>Good</t>
+  </si>
+  <si>
+    <t>Satisfactory</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Unacceptable</t>
+  </si>
+  <si>
+    <t>Failure</t>
+  </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>Meaning</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -386,6 +403,18 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -407,36 +436,100 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
     <dxf>
       <font>
+        <b/>
+        <i/>
         <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
         <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Times New Roman"/>
+        <scheme val="none"/>
       </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -452,6 +545,7 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
+      <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -466,7 +560,20 @@
         <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -550,7 +657,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tablo4" displayName="Tablo4" ref="A1:F6" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tablo4" displayName="Tablo4" ref="A1:F6" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:F6">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
@@ -560,12 +667,26 @@
     <filterColumn colId="5" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="6">
-    <tableColumn id="1" name=" " dataDxfId="7"/>
-    <tableColumn id="2" name="Electronics (0.25)" dataDxfId="6"/>
-    <tableColumn id="3" name="Image Processing (0.20)" dataDxfId="5"/>
-    <tableColumn id="4" name="Fun (0.35)" dataDxfId="4"/>
-    <tableColumn id="5" name="Robotics (0.20)" dataDxfId="3"/>
-    <tableColumn id="6" name="Total" dataDxfId="2"/>
+    <tableColumn id="1" name=" " dataDxfId="9"/>
+    <tableColumn id="2" name="Electronics (0.25)" dataDxfId="8"/>
+    <tableColumn id="3" name="Image Processing (0.20)" dataDxfId="7"/>
+    <tableColumn id="4" name="Fun (0.35)" dataDxfId="6"/>
+    <tableColumn id="5" name="Robotics (0.20)" dataDxfId="5"/>
+    <tableColumn id="6" name="Total" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tablo1" displayName="Tablo1" ref="H3:I9" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="H3:I9">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+  </autoFilter>
+  <tableColumns count="2">
+    <tableColumn id="1" name="Point" dataDxfId="3"/>
+    <tableColumn id="2" name="Meaning" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium23" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -834,10 +955,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="132" zoomScaleNormal="87" zoomScalePageLayoutView="87" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -847,9 +968,10 @@
     <col min="3" max="3" width="22.1640625" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="6" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>5</v>
       </c>
@@ -869,7 +991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -889,7 +1011,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -908,8 +1030,14 @@
       <c r="F3" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="H3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -928,8 +1056,14 @@
       <c r="F4" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="H4" s="5">
+        <v>10</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -948,8 +1082,14 @@
       <c r="F5" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="H5" s="5">
+        <v>8</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -967,13 +1107,44 @@
       </c>
       <c r="F6" s="1" t="s">
         <v>15</v>
+      </c>
+      <c r="H6" s="5">
+        <v>6</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H7" s="5">
+        <v>4</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H8" s="5">
+        <v>2</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H9" s="5">
+        <v>0</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <tableParts count="1">
+  <tableParts count="2">
     <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>